--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhak\Accessweb_newextent _2024.1.10 - Copy\AccessWeb\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudhak\Accessweb_newextent _2024.1.10 - Copy - Copy\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D68F2ED-2615-4740-90A8-1B799DA1A910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0AF7E8-C3AA-4BC4-9997-CCCB4A9CEA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="2" activeTab="4" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="954" firstSheet="36" activeTab="43" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AccessWeb" sheetId="53" r:id="rId1"/>
@@ -59,12 +59,13 @@
     <sheet name="CreateFolder" sheetId="2" r:id="rId44"/>
     <sheet name="CreateFile" sheetId="3" r:id="rId45"/>
     <sheet name="CompletedJobsFolder" sheetId="7" r:id="rId46"/>
-    <sheet name="TestDataAccessNew" sheetId="52" r:id="rId47"/>
-    <sheet name="RunningFolder" sheetId="6" r:id="rId48"/>
-    <sheet name="FileUpload" sheetId="55" r:id="rId49"/>
-    <sheet name="JobFiltersSavedFilters" sheetId="19" r:id="rId50"/>
-    <sheet name="2024.1.0" sheetId="59" r:id="rId51"/>
-    <sheet name="FilePermissions" sheetId="60" r:id="rId52"/>
+    <sheet name="others" sheetId="61" r:id="rId47"/>
+    <sheet name="TestDataAccessNew" sheetId="52" r:id="rId48"/>
+    <sheet name="RunningFolder" sheetId="6" r:id="rId49"/>
+    <sheet name="FileUpload" sheetId="55" r:id="rId50"/>
+    <sheet name="JobFiltersSavedFilters" sheetId="19" r:id="rId51"/>
+    <sheet name="2024.1.0" sheetId="59" r:id="rId52"/>
+    <sheet name="FilePermissions" sheetId="60" r:id="rId53"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">'JS-Latest'!$A$1:$G$91</definedName>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3666" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4050" uniqueCount="1553">
   <si>
     <t>username</t>
   </si>
@@ -3170,6 +3171,9 @@
     <t>Disable</t>
   </si>
   <si>
+    <t>If no logs were displayed, 'Export Data' button &amp; pagination elements should be disabled.</t>
+  </si>
+  <si>
     <t>Pagination</t>
   </si>
   <si>
@@ -3177,6 +3181,9 @@
   </si>
   <si>
     <t>Logs</t>
+  </si>
+  <si>
+    <t>Verify that user is able to search the logs based on providing user name, action, type, status</t>
   </si>
   <si>
     <t>Verify that audit admin is able to view Job actions to be logged with associated attributes for all the users</t>
@@ -3730,13 +3737,1030 @@
     <t>Testcase to verify the  Output folder pagination validation new UX</t>
   </si>
   <si>
-    <t>If no logs were displayed 'Export Data' button &amp; pagination elements should be disabled.</t>
-  </si>
-  <si>
-    <t>Verify that user is able to search the logs based on providing user name action type  status</t>
-  </si>
-  <si>
-    <t>Verify that in Audit log page IP address field should show the client IP Address</t>
+    <t>XrayID</t>
+  </si>
+  <si>
+    <t>AD-1770</t>
+  </si>
+  <si>
+    <t>AD-1773</t>
+  </si>
+  <si>
+    <t>AD-3381</t>
+  </si>
+  <si>
+    <t>AD-3289</t>
+  </si>
+  <si>
+    <t>AD-3294</t>
+  </si>
+  <si>
+    <t>AD-2958</t>
+  </si>
+  <si>
+    <t>AD-5245</t>
+  </si>
+  <si>
+    <t>AD-1085</t>
+  </si>
+  <si>
+    <t>AD-1086</t>
+  </si>
+  <si>
+    <t>AD-1124</t>
+  </si>
+  <si>
+    <t>AD-1095</t>
+  </si>
+  <si>
+    <t>AD-1094</t>
+  </si>
+  <si>
+    <t>AD-1087</t>
+  </si>
+  <si>
+    <t>AD-1092</t>
+  </si>
+  <si>
+    <t>AD-1084</t>
+  </si>
+  <si>
+    <t>AD-1083</t>
+  </si>
+  <si>
+    <t>AD-1091</t>
+  </si>
+  <si>
+    <t>AD-1088</t>
+  </si>
+  <si>
+    <t>AD-1116</t>
+  </si>
+  <si>
+    <t>AD-2477</t>
+  </si>
+  <si>
+    <t>AD-2480</t>
+  </si>
+  <si>
+    <t>AD-2479</t>
+  </si>
+  <si>
+    <t>AD-2478</t>
+  </si>
+  <si>
+    <t>AD-2484</t>
+  </si>
+  <si>
+    <t>AD-2485</t>
+  </si>
+  <si>
+    <t>AD-2472</t>
+  </si>
+  <si>
+    <t>AD-2471</t>
+  </si>
+  <si>
+    <t>AD-2469</t>
+  </si>
+  <si>
+    <t>AD-2470</t>
+  </si>
+  <si>
+    <t>AD-2476</t>
+  </si>
+  <si>
+    <t>AD-2475</t>
+  </si>
+  <si>
+    <t>AD-2501</t>
+  </si>
+  <si>
+    <t>AD-2502</t>
+  </si>
+  <si>
+    <t>AD-2503</t>
+  </si>
+  <si>
+    <t>AD-2504</t>
+  </si>
+  <si>
+    <t>AD-2483</t>
+  </si>
+  <si>
+    <t>AD-4358</t>
+  </si>
+  <si>
+    <t>AD-4357</t>
+  </si>
+  <si>
+    <t>AD-4316</t>
+  </si>
+  <si>
+    <t>AD-4303</t>
+  </si>
+  <si>
+    <t>AD-4301</t>
+  </si>
+  <si>
+    <t>AD-4300</t>
+  </si>
+  <si>
+    <t>AD-4299</t>
+  </si>
+  <si>
+    <t>AD-2499</t>
+  </si>
+  <si>
+    <t>AD-2496</t>
+  </si>
+  <si>
+    <t>Verify that in Audit log page IP address field should show the Client IP address</t>
+  </si>
+  <si>
+    <t>AD-4484</t>
+  </si>
+  <si>
+    <t>AD-4312</t>
+  </si>
+  <si>
+    <t>AD-4309</t>
+  </si>
+  <si>
+    <t>AD-4305</t>
+  </si>
+  <si>
+    <t>AD-4480</t>
+  </si>
+  <si>
+    <t>AD-4485</t>
+  </si>
+  <si>
+    <t>AD-4315</t>
+  </si>
+  <si>
+    <t>AD-4415</t>
+  </si>
+  <si>
+    <t>AD-5186</t>
+  </si>
+  <si>
+    <t>AD-5589</t>
+  </si>
+  <si>
+    <t>AD-2481</t>
+  </si>
+  <si>
+    <t>AD-3099</t>
+  </si>
+  <si>
+    <t>AD-3096</t>
+  </si>
+  <si>
+    <t>AD-3098</t>
+  </si>
+  <si>
+    <t>AD-3095</t>
+  </si>
+  <si>
+    <t>AD-3094</t>
+  </si>
+  <si>
+    <t>AD-3093</t>
+  </si>
+  <si>
+    <t>AD-3092</t>
+  </si>
+  <si>
+    <t>AD-2321</t>
+  </si>
+  <si>
+    <t>AD-2317</t>
+  </si>
+  <si>
+    <t>AD-1495</t>
+  </si>
+  <si>
+    <t>AD-1500</t>
+  </si>
+  <si>
+    <t>AD-5857</t>
+  </si>
+  <si>
+    <t>AD-5858</t>
+  </si>
+  <si>
+    <t>AD-5859</t>
+  </si>
+  <si>
+    <t>AD-5860</t>
+  </si>
+  <si>
+    <t>AD-5861</t>
+  </si>
+  <si>
+    <t>AD-5862</t>
+  </si>
+  <si>
+    <t>AD-5863</t>
+  </si>
+  <si>
+    <t>AD-5864</t>
+  </si>
+  <si>
+    <t>AD-5865</t>
+  </si>
+  <si>
+    <t>AD-5951</t>
+  </si>
+  <si>
+    <t>AD-5952</t>
+  </si>
+  <si>
+    <t>AD-5953</t>
+  </si>
+  <si>
+    <t>AD-5954</t>
+  </si>
+  <si>
+    <t>AD-5955</t>
+  </si>
+  <si>
+    <t>AD-5956</t>
+  </si>
+  <si>
+    <t>AD-5957</t>
+  </si>
+  <si>
+    <t>AD-5958</t>
+  </si>
+  <si>
+    <t>AD-5959</t>
+  </si>
+  <si>
+    <t>AD-5960</t>
+  </si>
+  <si>
+    <t>AD-5961</t>
+  </si>
+  <si>
+    <t>AD-5962</t>
+  </si>
+  <si>
+    <t>AD-5963</t>
+  </si>
+  <si>
+    <t>AD-5964</t>
+  </si>
+  <si>
+    <t>AD-5965</t>
+  </si>
+  <si>
+    <t>AD-5966</t>
+  </si>
+  <si>
+    <t>AD-5967</t>
+  </si>
+  <si>
+    <t>AD-5968</t>
+  </si>
+  <si>
+    <t>AD-5969</t>
+  </si>
+  <si>
+    <t>AD-5970</t>
+  </si>
+  <si>
+    <t>AD-5971</t>
+  </si>
+  <si>
+    <t>AD-5972</t>
+  </si>
+  <si>
+    <t>AD-5973</t>
+  </si>
+  <si>
+    <t>AD-5974</t>
+  </si>
+  <si>
+    <t>AD-5975</t>
+  </si>
+  <si>
+    <t>AD-5976</t>
+  </si>
+  <si>
+    <t>AD-5977</t>
+  </si>
+  <si>
+    <t>AD-5978</t>
+  </si>
+  <si>
+    <t>AD-5979</t>
+  </si>
+  <si>
+    <t>AD-5980</t>
+  </si>
+  <si>
+    <t>AD-5981</t>
+  </si>
+  <si>
+    <t>AD-5982</t>
+  </si>
+  <si>
+    <t>AD-5983</t>
+  </si>
+  <si>
+    <t>AD-5984</t>
+  </si>
+  <si>
+    <t>AD-5985</t>
+  </si>
+  <si>
+    <t>AD-5986</t>
+  </si>
+  <si>
+    <t>AD-5987</t>
+  </si>
+  <si>
+    <t>AD-5988</t>
+  </si>
+  <si>
+    <t>AD-5989</t>
+  </si>
+  <si>
+    <t>AD-5990</t>
+  </si>
+  <si>
+    <t>AD-5991</t>
+  </si>
+  <si>
+    <t>AD-5992</t>
+  </si>
+  <si>
+    <t>AD-5993</t>
+  </si>
+  <si>
+    <t>AD-5994</t>
+  </si>
+  <si>
+    <t>AD-5995</t>
+  </si>
+  <si>
+    <t>AD-5996</t>
+  </si>
+  <si>
+    <t>AD-5997</t>
+  </si>
+  <si>
+    <t>AD-5998</t>
+  </si>
+  <si>
+    <t>AD-5999</t>
+  </si>
+  <si>
+    <t>AD-6000</t>
+  </si>
+  <si>
+    <t>AD-6001</t>
+  </si>
+  <si>
+    <t>AD-6002</t>
+  </si>
+  <si>
+    <t>AD-6003</t>
+  </si>
+  <si>
+    <t>AD-6004</t>
+  </si>
+  <si>
+    <t>AD-6005</t>
+  </si>
+  <si>
+    <t>AD-6006</t>
+  </si>
+  <si>
+    <t>AD-6007</t>
+  </si>
+  <si>
+    <t>AD-6008</t>
+  </si>
+  <si>
+    <t>AD-6009</t>
+  </si>
+  <si>
+    <t>AD-6010</t>
+  </si>
+  <si>
+    <t>AD-6011</t>
+  </si>
+  <si>
+    <t>AD-6012</t>
+  </si>
+  <si>
+    <t>AD-6013</t>
+  </si>
+  <si>
+    <t>AD-6014</t>
+  </si>
+  <si>
+    <t>AD-6015</t>
+  </si>
+  <si>
+    <t>AD-6016</t>
+  </si>
+  <si>
+    <t>AD-6017</t>
+  </si>
+  <si>
+    <t>AD-2100</t>
+  </si>
+  <si>
+    <t>AD-2102</t>
+  </si>
+  <si>
+    <t>AD-2105</t>
+  </si>
+  <si>
+    <t>AD-2109</t>
+  </si>
+  <si>
+    <t>AD-2108</t>
+  </si>
+  <si>
+    <t>AD-2110</t>
+  </si>
+  <si>
+    <t>AD-2112</t>
+  </si>
+  <si>
+    <t>AD-2116</t>
+  </si>
+  <si>
+    <t>AD-2140</t>
+  </si>
+  <si>
+    <t>AD-2160</t>
+  </si>
+  <si>
+    <t>AD-2159</t>
+  </si>
+  <si>
+    <t>AD-2149</t>
+  </si>
+  <si>
+    <t>AD-2150</t>
+  </si>
+  <si>
+    <t>AD-2117</t>
+  </si>
+  <si>
+    <t>AD-2119</t>
+  </si>
+  <si>
+    <t>AD-2125</t>
+  </si>
+  <si>
+    <t>AD-2127</t>
+  </si>
+  <si>
+    <t>AD-2124</t>
+  </si>
+  <si>
+    <t>AD-1501</t>
+  </si>
+  <si>
+    <t>AD-1489</t>
+  </si>
+  <si>
+    <t>AD-6055</t>
+  </si>
+  <si>
+    <t>AD-6056</t>
+  </si>
+  <si>
+    <t>AD-6057</t>
+  </si>
+  <si>
+    <t>AD-6058</t>
+  </si>
+  <si>
+    <t>AD-6059</t>
+  </si>
+  <si>
+    <t>AD-6060</t>
+  </si>
+  <si>
+    <t>AD-6061</t>
+  </si>
+  <si>
+    <t>AD-6062</t>
+  </si>
+  <si>
+    <t>AD-6063</t>
+  </si>
+  <si>
+    <t>AD-6064</t>
+  </si>
+  <si>
+    <t>AD-6065</t>
+  </si>
+  <si>
+    <t>AD-6066</t>
+  </si>
+  <si>
+    <t>AD-6067</t>
+  </si>
+  <si>
+    <t>AD-6068</t>
+  </si>
+  <si>
+    <t>AD-6069</t>
+  </si>
+  <si>
+    <t>AD-6070</t>
+  </si>
+  <si>
+    <t>AD-6071</t>
+  </si>
+  <si>
+    <t>AD-6072</t>
+  </si>
+  <si>
+    <t>AD-6073</t>
+  </si>
+  <si>
+    <t>AD-6074</t>
+  </si>
+  <si>
+    <t>AD-6075</t>
+  </si>
+  <si>
+    <t>AD-6076</t>
+  </si>
+  <si>
+    <t>AD-6077</t>
+  </si>
+  <si>
+    <t>AD-6078</t>
+  </si>
+  <si>
+    <t>AD-6079</t>
+  </si>
+  <si>
+    <t>AD-6080</t>
+  </si>
+  <si>
+    <t>AD-6086</t>
+  </si>
+  <si>
+    <t>AD-6087</t>
+  </si>
+  <si>
+    <t>AD-6088</t>
+  </si>
+  <si>
+    <t>AD-6089</t>
+  </si>
+  <si>
+    <t>AD-6090</t>
+  </si>
+  <si>
+    <t>AD-2318</t>
+  </si>
+  <si>
+    <t>AD-2319</t>
+  </si>
+  <si>
+    <t>AD-2158</t>
+  </si>
+  <si>
+    <t>AD-2148</t>
+  </si>
+  <si>
+    <t>AD-3566</t>
+  </si>
+  <si>
+    <t>AD-6091</t>
+  </si>
+  <si>
+    <t>AD-6092</t>
+  </si>
+  <si>
+    <t>AD-6093</t>
+  </si>
+  <si>
+    <t>AD-6094</t>
+  </si>
+  <si>
+    <t>AD-6095</t>
+  </si>
+  <si>
+    <t>AD-6096</t>
+  </si>
+  <si>
+    <t>AD-6097</t>
+  </si>
+  <si>
+    <t>AD-6098</t>
+  </si>
+  <si>
+    <t>AD-6099</t>
+  </si>
+  <si>
+    <t>AD-6100</t>
+  </si>
+  <si>
+    <t>AD-5041</t>
+  </si>
+  <si>
+    <t>AD-5038</t>
+  </si>
+  <si>
+    <t>AD-5039</t>
+  </si>
+  <si>
+    <t>AD-6149</t>
+  </si>
+  <si>
+    <t>AD-6150</t>
+  </si>
+  <si>
+    <t>AD-6151</t>
+  </si>
+  <si>
+    <t>AD-2320</t>
+  </si>
+  <si>
+    <t>AD-2331</t>
+  </si>
+  <si>
+    <t>AD-2332</t>
+  </si>
+  <si>
+    <t>AD-2337</t>
+  </si>
+  <si>
+    <t>AD-2406</t>
+  </si>
+  <si>
+    <t>AD-2335</t>
+  </si>
+  <si>
+    <t>AD-2338</t>
+  </si>
+  <si>
+    <t>AD-2333</t>
+  </si>
+  <si>
+    <t>AD-2334</t>
+  </si>
+  <si>
+    <t>AD-2336</t>
+  </si>
+  <si>
+    <t>AD-2405</t>
+  </si>
+  <si>
+    <t>AD-6184</t>
+  </si>
+  <si>
+    <t>AD-6185</t>
+  </si>
+  <si>
+    <t>AD-6208</t>
+  </si>
+  <si>
+    <t>AD-6207</t>
+  </si>
+  <si>
+    <t>AD-6206</t>
+  </si>
+  <si>
+    <t>AD-6205</t>
+  </si>
+  <si>
+    <t>AD-6204</t>
+  </si>
+  <si>
+    <t>AD-6203</t>
+  </si>
+  <si>
+    <t>AD-6202</t>
+  </si>
+  <si>
+    <t>AD-6201</t>
+  </si>
+  <si>
+    <t>AD-6186</t>
+  </si>
+  <si>
+    <t>AD-6187</t>
+  </si>
+  <si>
+    <t>AD-6188</t>
+  </si>
+  <si>
+    <t>AD-6190</t>
+  </si>
+  <si>
+    <t>AD-6191</t>
+  </si>
+  <si>
+    <t>AD-6192</t>
+  </si>
+  <si>
+    <t>AD-6199</t>
+  </si>
+  <si>
+    <t>AD-6193</t>
+  </si>
+  <si>
+    <t>AD-6194</t>
+  </si>
+  <si>
+    <t>AD-6195</t>
+  </si>
+  <si>
+    <t>AD-6196</t>
+  </si>
+  <si>
+    <t>AD-6197</t>
+  </si>
+  <si>
+    <t>AD-6198</t>
+  </si>
+  <si>
+    <t>AD-6200</t>
+  </si>
+  <si>
+    <t>AD-6209</t>
+  </si>
+  <si>
+    <t>AD-5921</t>
+  </si>
+  <si>
+    <t>AD-5922</t>
+  </si>
+  <si>
+    <t>AD-5923</t>
+  </si>
+  <si>
+    <t>AD-5924</t>
+  </si>
+  <si>
+    <t>AD-5925</t>
+  </si>
+  <si>
+    <t>AD-5926</t>
+  </si>
+  <si>
+    <t>AD-5927</t>
+  </si>
+  <si>
+    <t>AD-5928</t>
+  </si>
+  <si>
+    <t>AD-5929</t>
+  </si>
+  <si>
+    <t>AD-5930</t>
+  </si>
+  <si>
+    <t>AD-5931</t>
+  </si>
+  <si>
+    <t>AD-5932</t>
+  </si>
+  <si>
+    <t>AD-6117</t>
+  </si>
+  <si>
+    <t>AD-6118</t>
+  </si>
+  <si>
+    <t>AD-6119</t>
+  </si>
+  <si>
+    <t>AD-6120</t>
+  </si>
+  <si>
+    <t>AD-6121</t>
+  </si>
+  <si>
+    <t>AD-6122</t>
+  </si>
+  <si>
+    <t>AD-6123</t>
+  </si>
+  <si>
+    <t>AD-6124</t>
+  </si>
+  <si>
+    <t>AD-6125</t>
+  </si>
+  <si>
+    <t>AD-6126</t>
+  </si>
+  <si>
+    <t>AD-6127</t>
+  </si>
+  <si>
+    <t>AD-6128</t>
+  </si>
+  <si>
+    <t>AD-6129</t>
+  </si>
+  <si>
+    <t>AD-1106</t>
+  </si>
+  <si>
+    <t>AD-1107</t>
+  </si>
+  <si>
+    <t>AD-1108</t>
+  </si>
+  <si>
+    <t>AD-6102</t>
+  </si>
+  <si>
+    <t>AD-6103</t>
+  </si>
+  <si>
+    <t>AD-6104</t>
+  </si>
+  <si>
+    <t>AD-1110</t>
+  </si>
+  <si>
+    <t>AD-1109</t>
+  </si>
+  <si>
+    <t>AD-6135</t>
+  </si>
+  <si>
+    <t>AD-5866</t>
+  </si>
+  <si>
+    <t>AD-5867</t>
+  </si>
+  <si>
+    <t>AD-5868</t>
+  </si>
+  <si>
+    <t>AD-5869</t>
+  </si>
+  <si>
+    <t>AD-5870</t>
+  </si>
+  <si>
+    <t>AD-5871</t>
+  </si>
+  <si>
+    <t>AD-5872</t>
+  </si>
+  <si>
+    <t>AD-5873</t>
+  </si>
+  <si>
+    <t>AD-5874</t>
+  </si>
+  <si>
+    <t>AD-5875</t>
+  </si>
+  <si>
+    <t>AD-5876</t>
+  </si>
+  <si>
+    <t>AD-5877</t>
+  </si>
+  <si>
+    <t>AD-5878</t>
+  </si>
+  <si>
+    <t>AD-5879</t>
+  </si>
+  <si>
+    <t>AD-5880</t>
+  </si>
+  <si>
+    <t>AD-5881</t>
+  </si>
+  <si>
+    <t>AD-5882</t>
+  </si>
+  <si>
+    <t>AD-5883</t>
+  </si>
+  <si>
+    <t>AD-5884</t>
+  </si>
+  <si>
+    <t>AD-5885</t>
+  </si>
+  <si>
+    <t>AD-5886</t>
+  </si>
+  <si>
+    <t>AD-5887</t>
+  </si>
+  <si>
+    <t>AD-5904</t>
+  </si>
+  <si>
+    <t>AD-5905</t>
+  </si>
+  <si>
+    <t>AD-5906</t>
+  </si>
+  <si>
+    <t>AD-5907</t>
+  </si>
+  <si>
+    <t>AD-5908</t>
+  </si>
+  <si>
+    <t>AD-5909</t>
+  </si>
+  <si>
+    <t>AD-5910</t>
+  </si>
+  <si>
+    <t>AD-5911</t>
+  </si>
+  <si>
+    <t>AD-5912</t>
+  </si>
+  <si>
+    <t>AD-5913</t>
+  </si>
+  <si>
+    <t>AD-5914</t>
+  </si>
+  <si>
+    <t>AD-5915</t>
+  </si>
+  <si>
+    <t>AD-5916</t>
+  </si>
+  <si>
+    <t>AD-5917</t>
+  </si>
+  <si>
+    <t>AD-5918</t>
+  </si>
+  <si>
+    <t>AD-5919</t>
+  </si>
+  <si>
+    <t>AD-5920</t>
+  </si>
+  <si>
+    <t>AD-5933</t>
+  </si>
+  <si>
+    <t>AD-5934</t>
+  </si>
+  <si>
+    <t>AD-5935</t>
+  </si>
+  <si>
+    <t>AD-5936</t>
+  </si>
+  <si>
+    <t>AD-5937</t>
+  </si>
+  <si>
+    <t>AD-5938</t>
+  </si>
+  <si>
+    <t>AD-5939</t>
+  </si>
+  <si>
+    <t>AD-5940</t>
+  </si>
+  <si>
+    <t>AD-5941</t>
+  </si>
+  <si>
+    <t>AD-5942</t>
+  </si>
+  <si>
+    <t>AD-5943</t>
+  </si>
+  <si>
+    <t>AD-5944</t>
+  </si>
+  <si>
+    <t>AD-5945</t>
+  </si>
+  <si>
+    <t>AD-5946</t>
+  </si>
+  <si>
+    <t>AD-5947</t>
+  </si>
+  <si>
+    <t>AD-5948</t>
   </si>
 </sst>
 </file>
@@ -3916,7 +4940,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3954,6 +4978,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -4386,12 +5415,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
@@ -4401,25 +5430,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228A5EA1-7578-437E-943F-B5DA9932AB71}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" customWidth="1"/>
     <col min="6" max="6" width="49.77734375" customWidth="1"/>
     <col min="7" max="7" width="30.33203125" customWidth="1"/>
     <col min="8" max="8" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1010</v>
       </c>
@@ -4427,7 +5456,7 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D1" t="s">
         <v>1009</v>
@@ -4436,24 +5465,27 @@
         <v>1008</v>
       </c>
       <c r="F1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="G1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="H1" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1034</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B2" t="s">
         <v>1007</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D2" t="s">
         <v>1006</v>
@@ -4462,32 +5494,38 @@
         <v>1006</v>
       </c>
       <c r="F2" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="G2" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1037</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1005</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>1036</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>1034</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="F3" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B4" t="s">
         <v>1004</v>
@@ -4510,50 +5548,59 @@
       <c r="H4" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B5" t="s">
         <v>1003</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="F5" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B6" t="s">
         <v>1002</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B7" t="s">
         <v>1000</v>
@@ -4562,10 +5609,10 @@
         <v>990</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F7" t="s">
         <v>998</v>
@@ -4573,10 +5620,13 @@
       <c r="G7" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B8" t="s">
         <v>999</v>
@@ -4588,7 +5638,7 @@
         <v>990</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="F8" t="s">
         <v>998</v>
@@ -4599,36 +5649,42 @@
       <c r="H8" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>997</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="F9" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B10" t="s">
         <v>995</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E10" t="s">
         <v>990</v>
@@ -4636,36 +5692,42 @@
       <c r="F10" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B11" t="s">
         <v>993</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="F11" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B12" t="s">
         <v>991</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D12" t="s">
         <v>990</v>
@@ -4679,25 +5741,32 @@
       <c r="G12" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="F13" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="G13" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="H13" t="s">
-        <v>1052</v>
+        <v>1054</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="Bangalore@123" xr:uid="{C8EC15C6-FC3F-4597-9188-215E9CFFA027}"/>
     <hyperlink ref="C5" r:id="rId2" display="Bangalore@123" xr:uid="{43E91C2E-F6E8-4A90-B2CA-F209A92C7702}"/>
@@ -4941,7 +6010,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B15" t="s">
         <v>977</v>
@@ -5014,7 +6083,7 @@
         <v>985</v>
       </c>
       <c r="B20" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C20" t="s">
         <v>984</v>
@@ -5269,10 +6338,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3050C8-3A8D-4DE1-9C22-09145670512E}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5285,7 +6354,7 @@
     <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -5304,8 +6373,11 @@
       <c r="F1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>866</v>
       </c>
@@ -5324,8 +6396,11 @@
       <c r="F2" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="26" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>867</v>
       </c>
@@ -5344,8 +6419,11 @@
       <c r="F3" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="26" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>868</v>
       </c>
@@ -5364,8 +6442,11 @@
       <c r="F4" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="26" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>869</v>
       </c>
@@ -5384,8 +6465,11 @@
       <c r="F5" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="26" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>870</v>
       </c>
@@ -5404,8 +6488,11 @@
       <c r="F6" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="26" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>871</v>
       </c>
@@ -5424,8 +6511,11 @@
       <c r="F7" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="26" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>872</v>
       </c>
@@ -5444,8 +6534,11 @@
       <c r="F8" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="26" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>873</v>
       </c>
@@ -5464,8 +6557,11 @@
       <c r="F9" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="26" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>874</v>
       </c>
@@ -5484,8 +6580,11 @@
       <c r="F10" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="26" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>875</v>
       </c>
@@ -5503,6 +6602,9 @@
       </c>
       <c r="F11" t="s">
         <v>846</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>1519</v>
       </c>
     </row>
   </sheetData>
@@ -5600,7 +6702,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5842,10 +6944,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5857,7 +6959,7 @@
     <col min="5" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -5873,8 +6975,11 @@
       <c r="E1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -5890,8 +6995,11 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>238</v>
       </c>
@@ -5907,8 +7015,11 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>708</v>
       </c>
@@ -5924,8 +7035,11 @@
       <c r="E4" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -5941,8 +7055,11 @@
       <c r="E5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>709</v>
       </c>
@@ -5958,8 +7075,11 @@
       <c r="E6" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>710</v>
       </c>
@@ -5975,8 +7095,11 @@
       <c r="E7" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>708</v>
       </c>
@@ -5992,8 +7115,11 @@
       <c r="E8" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>150</v>
       </c>
@@ -6009,8 +7135,11 @@
       <c r="E9" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>709</v>
       </c>
@@ -6026,8 +7155,11 @@
       <c r="E10" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>710</v>
       </c>
@@ -6043,8 +7175,11 @@
       <c r="E11" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>708</v>
       </c>
@@ -6060,8 +7195,11 @@
       <c r="E12" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -6077,8 +7215,11 @@
       <c r="E13" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>709</v>
       </c>
@@ -6094,8 +7235,11 @@
       <c r="E14" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>710</v>
       </c>
@@ -6111,8 +7255,11 @@
       <c r="E15" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>708</v>
       </c>
@@ -6128,8 +7275,11 @@
       <c r="E16" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -6145,8 +7295,11 @@
       <c r="E17" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>709</v>
       </c>
@@ -6162,8 +7315,11 @@
       <c r="E18" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>710</v>
       </c>
@@ -6179,16 +7335,19 @@
       <c r="E19" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B20" t="s">
         <v>707</v>
       </c>
       <c r="C20" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -6196,8 +7355,12 @@
       <c r="E20" t="s">
         <v>304</v>
       </c>
+      <c r="F20" t="s">
+        <v>1411</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6269,10 +7432,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6281,9 +7444,10 @@
     <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="43.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -6302,8 +7466,11 @@
       <c r="F1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -6319,8 +7486,11 @@
       <c r="E2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>515</v>
       </c>
@@ -6336,8 +7506,11 @@
       <c r="E3" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>517</v>
       </c>
@@ -6353,8 +7526,11 @@
       <c r="E4" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>520</v>
       </c>
@@ -6367,8 +7543,11 @@
       <c r="E5" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>522</v>
       </c>
@@ -6384,8 +7563,11 @@
       <c r="E6" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>525</v>
       </c>
@@ -6401,8 +7583,11 @@
       <c r="E7" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>527</v>
       </c>
@@ -6418,8 +7603,11 @@
       <c r="E8" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>529</v>
       </c>
@@ -6429,8 +7617,11 @@
       <c r="F9" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>532</v>
       </c>
@@ -6440,16 +7631,22 @@
       <c r="F10" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>534</v>
       </c>
       <c r="E11" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -6459,8 +7656,11 @@
       <c r="F12" s="8" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>539</v>
       </c>
@@ -6470,8 +7670,11 @@
       <c r="F13" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>541</v>
       </c>
@@ -6481,8 +7684,11 @@
       <c r="F14" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>543</v>
       </c>
@@ -6492,16 +7698,22 @@
       <c r="F15" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>546</v>
       </c>
       <c r="E16" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -6511,16 +7723,22 @@
       <c r="E17" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>550</v>
       </c>
       <c r="E18" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>552</v>
       </c>
@@ -6530,8 +7748,11 @@
       <c r="F19" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>555</v>
       </c>
@@ -6541,8 +7762,11 @@
       <c r="F20" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>557</v>
       </c>
@@ -6552,8 +7776,12 @@
       <c r="F21" t="s">
         <v>559</v>
       </c>
+      <c r="G21" t="s">
+        <v>1247</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{0D6A2D34-3965-4FD8-A5E6-55949E4F1F91}"/>
     <hyperlink ref="F12" r:id="rId2" xr:uid="{E27AD97D-86FF-468A-A0A5-744BED2E9EF9}"/>
@@ -6891,10 +8119,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE8C224-BA72-4C4C-B7BF-5463A9EB02C3}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6904,10 +8132,10 @@
     <col min="3" max="3" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -6926,8 +8154,11 @@
       <c r="F1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>421</v>
       </c>
@@ -6946,8 +8177,11 @@
       <c r="F2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>439</v>
       </c>
@@ -6966,8 +8200,11 @@
       <c r="F3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>440</v>
       </c>
@@ -6986,8 +8223,11 @@
       <c r="F4" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>441</v>
       </c>
@@ -7006,8 +8246,11 @@
       <c r="F5" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>442</v>
       </c>
@@ -7026,8 +8269,11 @@
       <c r="F6" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>443</v>
       </c>
@@ -7046,8 +8292,11 @@
       <c r="F7" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>444</v>
       </c>
@@ -7066,8 +8315,11 @@
       <c r="F8" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>638</v>
       </c>
@@ -7086,8 +8338,11 @@
       <c r="F9" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>639</v>
       </c>
@@ -7106,8 +8361,11 @@
       <c r="F10" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>640</v>
       </c>
@@ -7126,8 +8384,11 @@
       <c r="F11" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>641</v>
       </c>
@@ -7146,8 +8407,11 @@
       <c r="F12" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>642</v>
       </c>
@@ -7166,8 +8430,11 @@
       <c r="F13" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>476</v>
       </c>
@@ -7186,8 +8453,11 @@
       <c r="F14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>477</v>
       </c>
@@ -7206,8 +8476,11 @@
       <c r="F15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>478</v>
       </c>
@@ -7226,8 +8499,11 @@
       <c r="F16" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>479</v>
       </c>
@@ -7246,8 +8522,11 @@
       <c r="F17" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>480</v>
       </c>
@@ -7266,8 +8545,11 @@
       <c r="F18" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>481</v>
       </c>
@@ -7286,8 +8568,11 @@
       <c r="F19" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>482</v>
       </c>
@@ -7306,8 +8591,11 @@
       <c r="F20" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>643</v>
       </c>
@@ -7326,8 +8614,11 @@
       <c r="F21" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>644</v>
       </c>
@@ -7346,8 +8637,11 @@
       <c r="F22" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>646</v>
       </c>
@@ -7366,8 +8660,11 @@
       <c r="F23" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>645</v>
       </c>
@@ -7386,8 +8683,11 @@
       <c r="F24" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>647</v>
       </c>
@@ -7406,8 +8706,12 @@
       <c r="F25" t="s">
         <v>796</v>
       </c>
+      <c r="G25" t="s">
+        <v>1312</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{31EAF8A3-E659-4538-97F0-CAE30590E5F4}"/>
   </hyperlinks>
@@ -7422,8 +8726,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7910,10 +9214,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7924,7 +9228,7 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -7940,8 +9244,11 @@
       <c r="E1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>455</v>
       </c>
@@ -7954,8 +9261,11 @@
       <c r="D2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>456</v>
       </c>
@@ -7968,8 +9278,11 @@
       <c r="D3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>457</v>
       </c>
@@ -7982,8 +9295,11 @@
       <c r="D4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>460</v>
       </c>
@@ -7996,8 +9312,11 @@
       <c r="D5" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>464</v>
       </c>
@@ -8010,8 +9329,11 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>465</v>
       </c>
@@ -8024,8 +9346,11 @@
       <c r="D7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>466</v>
       </c>
@@ -8038,8 +9363,11 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>459</v>
       </c>
@@ -8052,8 +9380,11 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>467</v>
       </c>
@@ -8066,8 +9397,11 @@
       <c r="D10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>483</v>
       </c>
@@ -8080,8 +9414,11 @@
       <c r="D11" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>446</v>
       </c>
@@ -8094,8 +9431,11 @@
       <c r="D12" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>447</v>
       </c>
@@ -8108,8 +9448,11 @@
       <c r="D13" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>449</v>
       </c>
@@ -8122,8 +9465,11 @@
       <c r="D14" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>451</v>
       </c>
@@ -8136,8 +9482,11 @@
       <c r="D15" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>453</v>
       </c>
@@ -8150,8 +9499,11 @@
       <c r="D16" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>469</v>
       </c>
@@ -8164,8 +9516,11 @@
       <c r="D17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>461</v>
       </c>
@@ -8178,8 +9533,11 @@
       <c r="D18" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>462</v>
       </c>
@@ -8192,8 +9550,11 @@
       <c r="D19" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>463</v>
       </c>
@@ -8206,10 +9567,13 @@
       <c r="D20" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -8220,10 +9584,13 @@
       <c r="D21" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -8234,10 +9601,13 @@
       <c r="D22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -8248,8 +9618,11 @@
       <c r="D23" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>459</v>
       </c>
@@ -8262,8 +9635,11 @@
       <c r="D24" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>448</v>
       </c>
@@ -8276,8 +9652,11 @@
       <c r="D25" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>450</v>
       </c>
@@ -8292,6 +9671,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="output">
       <formula>NOT(ISERROR(SEARCH("output",A1)))</formula>
@@ -8310,10 +9690,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414B5370-5029-483B-916B-4E563C4D6F93}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8323,7 +9703,7 @@
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -8333,8 +9713,11 @@
       <c r="C1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>349</v>
       </c>
@@ -8344,8 +9727,11 @@
       <c r="C2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>350</v>
       </c>
@@ -8355,8 +9741,11 @@
       <c r="C3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>352</v>
       </c>
@@ -8366,8 +9755,11 @@
       <c r="C4" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>353</v>
       </c>
@@ -8377,8 +9769,11 @@
       <c r="C5" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>684</v>
       </c>
@@ -8388,8 +9783,11 @@
       <c r="C6" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>686</v>
       </c>
@@ -8399,8 +9797,11 @@
       <c r="C7" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>683</v>
       </c>
@@ -8410,8 +9811,11 @@
       <c r="C8" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>687</v>
       </c>
@@ -8421,8 +9825,11 @@
       <c r="C9" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>688</v>
       </c>
@@ -8432,8 +9839,11 @@
       <c r="C10" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>689</v>
       </c>
@@ -8443,8 +9853,11 @@
       <c r="C11" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>699</v>
       </c>
@@ -8454,8 +9867,11 @@
       <c r="C12" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>701</v>
       </c>
@@ -8465,8 +9881,11 @@
       <c r="C13" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>703</v>
       </c>
@@ -8476,8 +9895,11 @@
       <c r="C14" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>705</v>
       </c>
@@ -8487,8 +9909,12 @@
       <c r="C15" t="s">
         <v>153</v>
       </c>
+      <c r="D15" t="s">
+        <v>1344</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{7A8D1077-D0D4-47FD-98BD-8BC6CFCA7963}"/>
   </hyperlinks>
@@ -10356,7 +11782,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>885</v>
@@ -10374,12 +11800,12 @@
         <v>90</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>72</v>
@@ -10397,12 +11823,12 @@
         <v>90</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>73</v>
@@ -10420,12 +11846,12 @@
         <v>92</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>877</v>
@@ -10443,12 +11869,12 @@
         <v>91</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>15</v>
@@ -10466,7 +11892,7 @@
         <v>91</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
   </sheetData>
@@ -10491,10 +11917,10 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E19"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10505,7 +11931,7 @@
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -10518,8 +11944,11 @@
       <c r="D1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -10532,8 +11961,11 @@
       <c r="D2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -10546,8 +11978,11 @@
       <c r="D3" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -10560,8 +11995,11 @@
       <c r="D4" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -10574,8 +12012,11 @@
       <c r="D5" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -10588,8 +12029,11 @@
       <c r="D6" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -10602,8 +12046,11 @@
       <c r="D7" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -10616,8 +12063,11 @@
       <c r="D8" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -10630,8 +12080,11 @@
       <c r="D9" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -10644,8 +12097,11 @@
       <c r="D10" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -10658,8 +12114,11 @@
       <c r="D11" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -10672,8 +12131,11 @@
       <c r="D12" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -10686,8 +12148,11 @@
       <c r="D13" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>618</v>
       </c>
@@ -10700,8 +12165,11 @@
       <c r="D14" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -10714,8 +12182,11 @@
       <c r="D15" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -10728,8 +12199,11 @@
       <c r="D16" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>619</v>
       </c>
@@ -10742,8 +12216,11 @@
       <c r="D17" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -10756,8 +12233,11 @@
       <c r="D18" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -10770,8 +12250,12 @@
       <c r="D19" t="s">
         <v>623</v>
       </c>
+      <c r="E19" t="s">
+        <v>1393</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{291FBE2B-0785-4E49-A635-C984AEDF0A53}"/>
   </hyperlinks>
@@ -10784,10 +12268,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10798,7 +12282,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -10811,8 +12295,11 @@
       <c r="D1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>492</v>
       </c>
@@ -10823,12 +12310,15 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -10837,10 +12327,13 @@
         <v>501</v>
       </c>
       <c r="D3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>493</v>
       </c>
@@ -10851,10 +12344,13 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>494</v>
       </c>
@@ -10865,10 +12361,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>491</v>
       </c>
@@ -10879,10 +12378,13 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>490</v>
       </c>
@@ -10893,10 +12395,13 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>486</v>
       </c>
@@ -10907,10 +12412,13 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>672</v>
       </c>
@@ -10921,10 +12429,13 @@
         <v>500</v>
       </c>
       <c r="D9" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>673</v>
       </c>
@@ -10935,10 +12446,13 @@
         <v>501</v>
       </c>
       <c r="D10" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>485</v>
       </c>
@@ -10949,10 +12463,13 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>484</v>
       </c>
@@ -10963,10 +12480,13 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>489</v>
       </c>
@@ -10977,12 +12497,15 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -10991,10 +12514,13 @@
         <v>501</v>
       </c>
       <c r="D14" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>488</v>
       </c>
@@ -11005,10 +12531,13 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>487</v>
       </c>
@@ -11019,10 +12548,13 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>497</v>
       </c>
@@ -11033,12 +12565,15 @@
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>43</v>
@@ -11047,10 +12582,13 @@
         <v>501</v>
       </c>
       <c r="D18" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>498</v>
       </c>
@@ -11061,10 +12599,13 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>499</v>
       </c>
@@ -11075,10 +12616,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>496</v>
       </c>
@@ -11089,10 +12633,13 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>495</v>
       </c>
@@ -11103,12 +12650,15 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -11117,12 +12667,15 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1149</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
@@ -11131,12 +12684,15 @@
         <v>452</v>
       </c>
       <c r="D24" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1149</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
@@ -11145,12 +12701,15 @@
         <v>454</v>
       </c>
       <c r="D25" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1149</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -11159,12 +12718,15 @@
         <v>470</v>
       </c>
       <c r="D26" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1149</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -11173,26 +12735,32 @@
         <v>470</v>
       </c>
       <c r="D27" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1149</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="D28" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1149</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -11201,12 +12769,15 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1149</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -11215,12 +12786,15 @@
         <v>452</v>
       </c>
       <c r="D30" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1149</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -11229,10 +12803,13 @@
         <v>454</v>
       </c>
       <c r="D31" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1149</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>484</v>
       </c>
@@ -11243,10 +12820,13 @@
         <v>254</v>
       </c>
       <c r="D32" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1161</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>485</v>
       </c>
@@ -11257,24 +12837,30 @@
         <v>254</v>
       </c>
       <c r="D33" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1161</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D34" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1161</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>487</v>
       </c>
@@ -11285,10 +12871,13 @@
         <v>254</v>
       </c>
       <c r="D35" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1161</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>488</v>
       </c>
@@ -11299,10 +12888,13 @@
         <v>254</v>
       </c>
       <c r="D36" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1161</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>490</v>
       </c>
@@ -11313,10 +12905,13 @@
         <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1161</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>491</v>
       </c>
@@ -11327,10 +12922,13 @@
         <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1161</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>495</v>
       </c>
@@ -11341,10 +12939,13 @@
         <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1161</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>496</v>
       </c>
@@ -11355,10 +12956,14 @@
         <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>1159</v>
+        <v>1161</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1441</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B23:C31">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="output">
       <formula>NOT(ISERROR(SEARCH("output",B23)))</formula>
@@ -11379,7 +12984,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11394,46 +12999,46 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C1" t="s">
         <v>347</v>
       </c>
       <c r="D1" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B2" s="20" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D2" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B3" s="19" t="b">
         <v>0</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D3" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B4" s="19" t="b">
         <v>1</v>
@@ -11442,12 +13047,12 @@
         <v>298</v>
       </c>
       <c r="D4" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B5" s="19" t="b">
         <v>0</v>
@@ -11456,12 +13061,12 @@
         <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B6" s="19" t="b">
         <v>1</v>
@@ -11470,12 +13075,12 @@
         <v>304</v>
       </c>
       <c r="D6" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B7" s="19" t="b">
         <v>0</v>
@@ -11484,12 +13089,12 @@
         <v>304</v>
       </c>
       <c r="D7" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B8" s="19" t="b">
         <v>1</v>
@@ -11498,12 +13103,12 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B9" s="19" t="b">
         <v>0</v>
@@ -11512,40 +13117,40 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B10" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D10" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B11" s="18" t="b">
         <v>0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D11" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B12" s="20" t="b">
         <v>1</v>
@@ -11554,12 +13159,12 @@
         <v>573</v>
       </c>
       <c r="D12" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B13" s="19" t="b">
         <v>0</v>
@@ -11568,12 +13173,12 @@
         <v>573</v>
       </c>
       <c r="D13" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B14" s="19" t="b">
         <v>1</v>
@@ -11582,12 +13187,12 @@
         <v>298</v>
       </c>
       <c r="D14" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B15" s="19" t="b">
         <v>0</v>
@@ -11596,12 +13201,12 @@
         <v>298</v>
       </c>
       <c r="D15" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B16" s="19" t="b">
         <v>1</v>
@@ -11610,12 +13215,12 @@
         <v>304</v>
       </c>
       <c r="D16" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B17" s="19" t="b">
         <v>0</v>
@@ -11624,12 +13229,12 @@
         <v>304</v>
       </c>
       <c r="D17" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B18" s="19" t="b">
         <v>1</v>
@@ -11638,12 +13243,12 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B19" s="19" t="b">
         <v>0</v>
@@ -11652,35 +13257,35 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B20" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D20" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B21" s="18" t="b">
         <v>0</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D21" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -11694,9 +13299,11 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11706,7 +13313,7 @@
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -11719,8 +13326,11 @@
       <c r="D1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -11733,8 +13343,11 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -11747,8 +13360,11 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -11761,8 +13377,11 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -11775,8 +13394,11 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -11789,8 +13411,11 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>295</v>
       </c>
@@ -11803,8 +13428,11 @@
       <c r="D7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -11817,8 +13445,11 @@
       <c r="D8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -11831,8 +13462,12 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
+      <c r="E9" t="s">
+        <v>1401</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{6A6AC814-7C90-4191-A528-433864BBC41A}"/>
   </hyperlinks>
@@ -11845,10 +13480,10 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11858,7 +13493,7 @@
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -11868,8 +13503,11 @@
       <c r="C1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -11879,8 +13517,11 @@
       <c r="C2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -11890,19 +13531,25 @@
       <c r="C3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -11912,8 +13559,11 @@
       <c r="C5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -11923,8 +13573,11 @@
       <c r="C6" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -11934,8 +13587,11 @@
       <c r="C7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -11945,8 +13601,11 @@
       <c r="C8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -11956,8 +13615,11 @@
       <c r="C9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -11967,8 +13629,12 @@
       <c r="C10" t="s">
         <v>99</v>
       </c>
+      <c r="D10" t="s">
+        <v>1288</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{9158315F-F870-4522-9EAB-0B4FA008B9BA}"/>
   </hyperlinks>
@@ -12130,7 +13796,7 @@
   </sheetPr>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView topLeftCell="B53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C54" sqref="C54:C56"/>
     </sheetView>
   </sheetViews>
@@ -13182,7 +14848,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="1.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>173</v>
       </c>
@@ -14283,10 +15949,10 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14297,7 +15963,7 @@
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -14310,8 +15976,11 @@
       <c r="D1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>241</v>
       </c>
@@ -14324,8 +15993,11 @@
       <c r="D2" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -14338,8 +16010,11 @@
       <c r="D3" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -14352,8 +16027,11 @@
       <c r="D4" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>245</v>
       </c>
@@ -14366,22 +16044,28 @@
       <c r="D5" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C6" t="s">
         <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -14394,8 +16078,11 @@
       <c r="D7" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>634</v>
       </c>
@@ -14405,8 +16092,11 @@
       <c r="D8" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>636</v>
       </c>
@@ -14419,10 +16109,13 @@
       <c r="D9" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B10" t="s">
         <v>545</v>
@@ -14431,10 +16124,14 @@
         <v>386</v>
       </c>
       <c r="D10" t="s">
-        <v>1173</v>
+        <v>1175</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1213</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{D7206C73-0080-477F-B746-78A0AF2DF015}"/>
   </hyperlinks>
@@ -14553,10 +16250,10 @@
   <sheetPr codeName="Sheet13">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14567,7 +16264,7 @@
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -14580,8 +16277,11 @@
       <c r="D1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>599</v>
       </c>
@@ -14594,8 +16294,11 @@
       <c r="D2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="25" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>600</v>
       </c>
@@ -14608,10 +16311,13 @@
       <c r="D3" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="25" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B4" t="s">
         <v>100</v>
@@ -14622,10 +16328,13 @@
       <c r="D4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="25" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B5" t="s">
         <v>106</v>
@@ -14636,8 +16345,11 @@
       <c r="D5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="25" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -14650,8 +16362,11 @@
       <c r="D6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="25" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -14664,8 +16379,11 @@
       <c r="D7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="25" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -14678,8 +16396,11 @@
       <c r="D8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="25" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -14692,8 +16413,11 @@
       <c r="D9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="25" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>126</v>
       </c>
@@ -14706,8 +16430,11 @@
       <c r="D10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="25" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>127</v>
       </c>
@@ -14720,8 +16447,11 @@
       <c r="D11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="25" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -14734,8 +16464,11 @@
       <c r="D12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="25" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -14747,6 +16480,9 @@
       </c>
       <c r="D13" t="s">
         <v>67</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>1509</v>
       </c>
     </row>
   </sheetData>
@@ -14901,10 +16637,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14914,7 +16650,7 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -14924,8 +16660,11 @@
       <c r="C1" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>820</v>
       </c>
@@ -14935,8 +16674,11 @@
       <c r="C2" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="27" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>822</v>
       </c>
@@ -14946,8 +16688,11 @@
       <c r="C3" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="27" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>821</v>
       </c>
@@ -14957,8 +16702,11 @@
       <c r="C4" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="27" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>823</v>
       </c>
@@ -14968,8 +16716,11 @@
       <c r="C5" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="27" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>824</v>
       </c>
@@ -14979,8 +16730,11 @@
       <c r="C6" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="27" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>825</v>
       </c>
@@ -14990,8 +16744,11 @@
       <c r="C7" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="27" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>826</v>
       </c>
@@ -15001,101 +16758,134 @@
       <c r="C8" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="27" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>832</v>
       </c>
       <c r="B9" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="27" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>833</v>
       </c>
       <c r="B10" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="27" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>834</v>
       </c>
       <c r="B11" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="27" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>836</v>
       </c>
       <c r="B12" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="27" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B13" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1168</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>837</v>
       </c>
       <c r="B14" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="27" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>838</v>
       </c>
       <c r="B15" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="27" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>839</v>
       </c>
       <c r="B16" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16" s="27" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>840</v>
       </c>
       <c r="B17" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17" s="27" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B18" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1167</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B19" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B20" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -15139,24 +16929,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -15168,29 +16958,29 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -15202,29 +16992,29 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B6" t="s">
         <v>458</v>
       </c>
       <c r="C6" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -15236,12 +17026,12 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -15253,29 +17043,29 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -15287,12 +17077,12 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -15309,7 +17099,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B12" t="s">
         <v>458</v>
@@ -15326,7 +17116,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -15343,7 +17133,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -15355,12 +17145,12 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -15372,12 +17162,12 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -15389,12 +17179,12 @@
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -15406,12 +17196,12 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B18" t="s">
         <v>458</v>
@@ -15423,12 +17213,12 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -15440,12 +17230,12 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -15457,12 +17247,12 @@
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -15474,12 +17264,12 @@
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -15491,12 +17281,12 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -15513,7 +17303,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B24" t="s">
         <v>458</v>
@@ -15530,7 +17320,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -15547,7 +17337,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -15559,12 +17349,12 @@
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -15576,12 +17366,12 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -15593,7 +17383,7 @@
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
@@ -15606,10 +17396,10 @@
   <sheetPr codeName="Sheet14">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15621,7 +17411,7 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -15637,8 +17427,11 @@
       <c r="E1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>502</v>
       </c>
@@ -15654,8 +17447,11 @@
       <c r="E2" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="24" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>503</v>
       </c>
@@ -15671,8 +17467,11 @@
       <c r="E3" s="11" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="24" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>130</v>
       </c>
@@ -15688,8 +17487,11 @@
       <c r="E4" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="24" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>129</v>
       </c>
@@ -15705,8 +17507,11 @@
       <c r="E5" s="11" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="24" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>841</v>
       </c>
@@ -15722,8 +17527,11 @@
       <c r="E6" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="24" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>131</v>
       </c>
@@ -15739,8 +17547,11 @@
       <c r="E7" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="24" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>138</v>
       </c>
@@ -15756,8 +17567,11 @@
       <c r="E8" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="24" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>139</v>
       </c>
@@ -15773,8 +17587,11 @@
       <c r="E9" s="11" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="24" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>132</v>
       </c>
@@ -15790,8 +17607,11 @@
       <c r="E10" s="11" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="24" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>133</v>
       </c>
@@ -15807,8 +17627,11 @@
       <c r="E11" s="11" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="24" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>360</v>
       </c>
@@ -15824,8 +17647,11 @@
       <c r="E12" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="24" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>362</v>
       </c>
@@ -15841,8 +17667,11 @@
       <c r="E13" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="24" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>363</v>
       </c>
@@ -15858,8 +17687,11 @@
       <c r="E14" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="24" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -15875,8 +17707,11 @@
       <c r="E15" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="24" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>364</v>
       </c>
@@ -15892,8 +17727,11 @@
       <c r="E16" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="24" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>365</v>
       </c>
@@ -15909,8 +17747,11 @@
       <c r="E17" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="24" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>366</v>
       </c>
@@ -15926,8 +17767,11 @@
       <c r="E18" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="23" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>789</v>
       </c>
@@ -15943,8 +17787,11 @@
       <c r="E19" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="23" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -15960,8 +17807,11 @@
       <c r="E20" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="23" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -15977,13 +17827,16 @@
       <c r="E21" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="23" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C22" t="s">
         <v>53</v>
@@ -15991,8 +17844,12 @@
       <c r="D22" t="s">
         <v>53</v>
       </c>
+      <c r="F22" s="23" t="s">
+        <v>1497</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16146,10 +18003,10 @@
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16161,7 +18018,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -16177,8 +18034,11 @@
       <c r="E1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -16194,8 +18054,11 @@
       <c r="E2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -16211,8 +18074,11 @@
       <c r="E3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -16228,8 +18094,11 @@
       <c r="E4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -16245,8 +18114,11 @@
       <c r="E5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>240</v>
       </c>
@@ -16262,8 +18134,11 @@
       <c r="E6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>240</v>
       </c>
@@ -16279,8 +18154,11 @@
       <c r="E7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>268</v>
       </c>
@@ -16296,8 +18174,11 @@
       <c r="E8" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>270</v>
       </c>
@@ -16313,8 +18194,11 @@
       <c r="E9" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>271</v>
       </c>
@@ -16330,8 +18214,11 @@
       <c r="E10" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>272</v>
       </c>
@@ -16347,8 +18234,11 @@
       <c r="E11" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>356</v>
       </c>
@@ -16364,8 +18254,12 @@
       <c r="E12" t="s">
         <v>267</v>
       </c>
+      <c r="F12" t="s">
+        <v>1355</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16376,10 +18270,10 @@
   <sheetPr codeName="Sheet17">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16390,7 +18284,7 @@
     <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -16403,8 +18297,11 @@
       <c r="D1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -16417,8 +18314,11 @@
       <c r="D2" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>809</v>
       </c>
@@ -16431,8 +18331,11 @@
       <c r="D3" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>810</v>
       </c>
@@ -16445,8 +18348,11 @@
       <c r="D4" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>811</v>
       </c>
@@ -16459,8 +18365,11 @@
       <c r="D5" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -16473,8 +18382,11 @@
       <c r="D6" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -16487,8 +18399,11 @@
       <c r="D7" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -16501,8 +18416,11 @@
       <c r="D8" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>809</v>
       </c>
@@ -16515,8 +18433,11 @@
       <c r="D9" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>810</v>
       </c>
@@ -16529,8 +18450,11 @@
       <c r="D10" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>811</v>
       </c>
@@ -16543,8 +18467,11 @@
       <c r="D11" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>238</v>
       </c>
@@ -16557,8 +18484,11 @@
       <c r="D12" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -16570,6 +18500,9 @@
       </c>
       <c r="D13" t="s">
         <v>348</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1475</v>
       </c>
     </row>
   </sheetData>
@@ -16582,10 +18515,10 @@
   <sheetPr codeName="Sheet18">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16595,7 +18528,7 @@
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -16605,8 +18538,11 @@
       <c r="C1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -16616,8 +18552,11 @@
       <c r="C2" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -16627,8 +18566,11 @@
       <c r="C3" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="27" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -16638,8 +18580,11 @@
       <c r="C4" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="27" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -16649,8 +18594,11 @@
       <c r="C5" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="27" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -16660,8 +18608,11 @@
       <c r="C6" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="27" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -16671,8 +18622,11 @@
       <c r="C7" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="27" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>624</v>
       </c>
@@ -16682,8 +18636,11 @@
       <c r="C8" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="27" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>626</v>
       </c>
@@ -16693,8 +18650,11 @@
       <c r="C9" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="27" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -16704,8 +18664,11 @@
       <c r="C10" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="27" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -16715,8 +18678,11 @@
       <c r="C11" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="27" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>628</v>
       </c>
@@ -16726,8 +18692,11 @@
       <c r="C12" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="27" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>630</v>
       </c>
@@ -16737,8 +18706,11 @@
       <c r="C13" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="27" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>632</v>
       </c>
@@ -16748,8 +18720,11 @@
       <c r="C14" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="27" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>633</v>
       </c>
@@ -16759,8 +18734,11 @@
       <c r="C15" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="27" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>783</v>
       </c>
@@ -16770,8 +18748,11 @@
       <c r="C16" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="27" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>784</v>
       </c>
@@ -16781,8 +18762,12 @@
       <c r="C17" t="s">
         <v>773</v>
       </c>
+      <c r="D17" s="27" t="s">
+        <v>1552</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{AD5CC1E8-F660-4245-A0AF-526EC1CD1945}"/>
   </hyperlinks>
@@ -16795,19 +18780,20 @@
   <sheetPr codeName="Sheet19">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -16817,8 +18803,11 @@
       <c r="C1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>791</v>
       </c>
@@ -16828,8 +18817,11 @@
       <c r="C2" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>792</v>
       </c>
@@ -16839,8 +18831,11 @@
       <c r="C3" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>775</v>
       </c>
@@ -16850,8 +18845,11 @@
       <c r="C4" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>776</v>
       </c>
@@ -16861,8 +18859,11 @@
       <c r="C5" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>781</v>
       </c>
@@ -16872,8 +18873,11 @@
       <c r="C6" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>782</v>
       </c>
@@ -16883,8 +18887,11 @@
       <c r="C7" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -16894,8 +18901,11 @@
       <c r="C8" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -16905,8 +18915,11 @@
       <c r="C9" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -16916,37 +18929,52 @@
       <c r="C10" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>679</v>
       </c>
       <c r="B11" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>680</v>
       </c>
       <c r="B12" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>681</v>
       </c>
       <c r="B13" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>682</v>
       </c>
       <c r="B14" t="s">
         <v>678</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1488</v>
       </c>
     </row>
   </sheetData>
@@ -16960,7 +18988,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17034,11 +19062,25 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8864CB40-A73B-4F10-9198-5C94E25214F3}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A083DB-8033-4BB4-A1E0-5E965CA1B587}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8864CB40-A73B-4F10-9198-5C94E25214F3}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17051,7 +19093,7 @@
     <col min="6" max="6" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -17070,10 +19112,13 @@
       <c r="F1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B2" t="s">
         <v>511</v>
@@ -17082,18 +19127,21 @@
         <v>512</v>
       </c>
       <c r="D2" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="E2" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F2" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B3" t="s">
         <v>511</v>
@@ -17102,18 +19150,21 @@
         <v>512</v>
       </c>
       <c r="D3" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="E3" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F3" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B4" t="s">
         <v>511</v>
@@ -17122,18 +19173,21 @@
         <v>512</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="E4" t="s">
         <v>422</v>
       </c>
       <c r="F4" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1116</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B5" t="s">
         <v>511</v>
@@ -17142,18 +19196,21 @@
         <v>512</v>
       </c>
       <c r="D5" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="E5" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="F5" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1120</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B6" t="s">
         <v>511</v>
@@ -17162,18 +19219,21 @@
         <v>512</v>
       </c>
       <c r="D6" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="E6" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="F6" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1124</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B7" t="s">
         <v>511</v>
@@ -17182,18 +19242,21 @@
         <v>512</v>
       </c>
       <c r="D7" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="E7" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F7" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1127</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B8" t="s">
         <v>511</v>
@@ -17202,15 +19265,54 @@
         <v>512</v>
       </c>
       <c r="E8" t="s">
-        <v>1127</v>
+        <v>1129</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81503B49-E101-4423-8FFF-B866835D92EC}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:B5"/>
@@ -17270,12 +19372,282 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0C9BC5-E2CE-4417-A398-52D4FBA952C1}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="86.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B3" t="s">
+        <v>545</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B10" t="s">
+        <v>320</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>829</v>
+      </c>
+      <c r="M12" t="s">
+        <v>834</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>830</v>
+      </c>
+      <c r="M13" t="s">
+        <v>836</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>828</v>
+      </c>
+      <c r="M14" t="s">
+        <v>833</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>831</v>
+      </c>
+      <c r="M15" t="s">
+        <v>835</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>827</v>
+      </c>
+      <c r="M16" t="s">
+        <v>832</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50FF732-6CB7-4C54-BB6D-389CA5D69A47}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17285,7 +19657,7 @@
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1010</v>
       </c>
@@ -17293,311 +19665,112 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B2" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1135</v>
-      </c>
       <c r="C2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1136</v>
-      </c>
       <c r="B3" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C3" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1140</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C4" t="s">
         <v>1140</v>
       </c>
-      <c r="C4" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C5" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1136</v>
-      </c>
       <c r="B7" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C7" t="s">
-        <v>1138</v>
+        <v>1140</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1425</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0C9BC5-E2CE-4417-A398-52D4FBA952C1}">
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="86.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B3" t="s">
-        <v>545</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1134</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B10" t="s">
-        <v>320</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>202</v>
-      </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>829</v>
-      </c>
-      <c r="M12" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>830</v>
-      </c>
-      <c r="M13" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>828</v>
-      </c>
-      <c r="M14" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>831</v>
-      </c>
-      <c r="M15" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>827</v>
-      </c>
-      <c r="M16" t="s">
-        <v>832</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCEF9F3-3285-454F-A311-2FAE775A4BE5}">
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17611,7 +19784,7 @@
     <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -17633,8 +19806,11 @@
       <c r="G1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -17656,8 +19832,11 @@
       <c r="G2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -17679,8 +19858,11 @@
       <c r="G3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -17702,8 +19884,11 @@
       <c r="G4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -17725,8 +19910,11 @@
       <c r="G5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>240</v>
       </c>
@@ -17748,8 +19936,11 @@
       <c r="G6" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -17771,8 +19962,11 @@
       <c r="G7" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>270</v>
       </c>
@@ -17794,8 +19988,11 @@
       <c r="G8" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>271</v>
       </c>
@@ -17817,8 +20014,11 @@
       <c r="G9" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>272</v>
       </c>
@@ -17840,8 +20040,11 @@
       <c r="G10" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -17863,8 +20066,11 @@
       <c r="G11" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -17886,8 +20092,11 @@
       <c r="G12" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>285</v>
       </c>
@@ -17909,8 +20118,11 @@
       <c r="G13" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>286</v>
       </c>
@@ -17932,8 +20144,11 @@
       <c r="G14" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>287</v>
       </c>
@@ -17955,8 +20170,11 @@
       <c r="G15" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>288</v>
       </c>
@@ -17978,8 +20196,11 @@
       <c r="G16" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>289</v>
       </c>
@@ -18001,8 +20222,11 @@
       <c r="G17" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>290</v>
       </c>
@@ -18024,8 +20248,11 @@
       <c r="G18" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>291</v>
       </c>
@@ -18047,8 +20274,12 @@
       <c r="G19" t="s">
         <v>283</v>
       </c>
+      <c r="H19" t="s">
+        <v>1330</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{17A34A3D-FCB4-496D-83D9-9CD80D0ED2D3}"/>
   </hyperlinks>
@@ -18057,12 +20288,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304D259E-83D8-4392-AE67-C9D460A8C37E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18083,113 +20314,113 @@
         <v>203</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D1" t="s">
         <v>347</v>
       </c>
       <c r="E1" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="F1" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D2" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="E2" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="F2" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D3" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="E3" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="F3" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B4" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E4" t="s">
         <v>1197</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="D5" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="E5" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="F5" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="D6" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="E6" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="F6" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
   </sheetData>
@@ -18200,12 +20431,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFB9B6C-B0CE-427C-98B4-659AF87DCC9E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18223,51 +20454,51 @@
         <v>296</v>
       </c>
       <c r="C1" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="B2" t="s">
         <v>668</v>
       </c>
       <c r="C2" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B3" t="s">
         <v>669</v>
       </c>
       <c r="C3" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B4" t="s">
         <v>670</v>
       </c>
       <c r="C4" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B5" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C5" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
   </sheetData>
@@ -18317,7 +20548,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B2" t="s">
         <v>511</v>
@@ -18326,18 +20557,18 @@
         <v>512</v>
       </c>
       <c r="D2" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="E2" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F2" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B3" t="s">
         <v>511</v>
@@ -18346,18 +20577,18 @@
         <v>512</v>
       </c>
       <c r="D3" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="E3" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F3" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B4" t="s">
         <v>511</v>
@@ -18366,18 +20597,18 @@
         <v>512</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="E4" t="s">
         <v>422</v>
       </c>
       <c r="F4" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B5" t="s">
         <v>511</v>
@@ -18386,18 +20617,18 @@
         <v>512</v>
       </c>
       <c r="D5" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="E5" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="F5" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B6" t="s">
         <v>511</v>
@@ -18406,18 +20637,18 @@
         <v>512</v>
       </c>
       <c r="D6" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="E6" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="F6" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B7" t="s">
         <v>511</v>
@@ -18426,18 +20657,18 @@
         <v>512</v>
       </c>
       <c r="D7" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="E7" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F7" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B8" t="s">
         <v>511</v>
@@ -18446,7 +20677,7 @@
         <v>512</v>
       </c>
       <c r="E8" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
   </sheetData>
